--- a/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/falcon.fm.bill.process.xlsx
+++ b/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/falcon.fm.bill.process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-fm/src/main/resources/plugin/fm/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E5A3A-B23F-B147-A315-9A39ACF22A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFDB86-FFC4-BB41-B6E5-33A0BBA1A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66380" yWindow="-3280" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-70020" yWindow="960" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>active</t>
   </si>
@@ -156,49 +160,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退款/付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51541af0-7541-4abb-8208-0425ecc1dee8</t>
+    <t>56b29637-00ca-482f-a2e3-95570a89ba63</t>
+  </si>
+  <si>
+    <t>cec91206-07cb-4337-9f17-59a426b72f81</t>
+  </si>
+  <si>
+    <t>0cdda8cc-6280-4fb3-a7e5-7b8d80fb48e8</t>
+  </si>
+  <si>
+    <t>交易处理</t>
+  </si>
+  <si>
+    <t>交易查询</t>
+  </si>
+  <si>
+    <t>应收处理</t>
+  </si>
+  <si>
+    <t>094a950e-e887-421d-9f93-b80c49b8ee24</t>
+  </si>
+  <si>
+    <t>交易特殊处理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,7 +227,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,7 +235,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -309,20 +330,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,7 +360,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,6 +374,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,9 +421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -443,7 +461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -549,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,232 +717,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7" t="s">
+      <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K21" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
